--- a/W6/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
+++ b/W6/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="169">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
@@ -113,22 +113,7 @@
     <t>LOC</t>
   </si>
   <si>
-    <t>Posts List</t>
-  </si>
-  <si>
     <t>Marketing</t>
-  </si>
-  <si>
-    <t>Show the paginated list of posts (include posts' id, thumbnail, title, category, author, featured, and status information):
-- The user can filter the post by category, author, status; also the user can search the post by title
-- The list can be sortable by title, category, author, featured, or status
-- The page also have the button/link that allows the user to add new or choose to view/update/show/hide an existing post</t>
-  </si>
-  <si>
-    <t>Post Details</t>
-  </si>
-  <si>
-    <t>Show detailed post information (thumbnail, category, title, brief information,  content, flag to turn the featurning on/off, status), from that allow the user to input new post information, view or edit existing post information</t>
   </si>
   <si>
     <t>Admin</t>
@@ -305,9 +290,6 @@
     <t>Certificate</t>
   </si>
   <si>
-    <t>Service</t>
-  </si>
-  <si>
     <t>Browsing hisory</t>
   </si>
   <si>
@@ -470,15 +452,9 @@
     <t>Blog list</t>
   </si>
   <si>
-    <t>Post list</t>
-  </si>
-  <si>
     <t>Introduction</t>
   </si>
   <si>
-    <t>Recruiment</t>
-  </si>
-  <si>
     <t>Add to cart</t>
   </si>
   <si>
@@ -549,6 +525,30 @@
   </si>
   <si>
     <t>Display list porduct, category</t>
+  </si>
+  <si>
+    <t>Support Services</t>
+  </si>
+  <si>
+    <t>Help Details</t>
+  </si>
+  <si>
+    <t>Help Content</t>
+  </si>
+  <si>
+    <t>Service Support</t>
+  </si>
+  <si>
+    <t>List Service</t>
+  </si>
+  <si>
+    <t>Service Content</t>
+  </si>
+  <si>
+    <t>Display a list of support services available to users</t>
+  </si>
+  <si>
+    <t>Display all content, instructions of Admin to support users</t>
   </si>
 </sst>
 </file>
@@ -1586,7 +1586,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -1598,13 +1598,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1684,9 +1684,9 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D6" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E6" s="16"/>
     </row>
@@ -1744,7 +1744,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1762,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F9" s="8"/>
     </row>
@@ -1772,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>10</v>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F10" s="8"/>
     </row>
@@ -1791,7 +1791,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>10</v>
@@ -1800,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F11" s="8"/>
     </row>
@@ -1809,7 +1809,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>10</v>
@@ -1818,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F12" s="8"/>
     </row>
@@ -1828,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>10</v>
@@ -1884,7 +1884,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>10</v>
@@ -1893,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -1921,16 +1921,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -1939,16 +1939,16 @@
         <v>11</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -1957,16 +1957,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F20" s="8"/>
     </row>
@@ -1975,16 +1975,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F21" s="8"/>
     </row>
@@ -1993,16 +1993,16 @@
         <v>14</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -2011,16 +2011,16 @@
         <v>15</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -2029,16 +2029,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F24" s="8"/>
     </row>
@@ -2047,16 +2047,16 @@
         <v>17</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -2065,16 +2065,16 @@
         <v>18</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F26" s="8"/>
     </row>
@@ -2083,16 +2083,16 @@
         <v>19</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -2101,7 +2101,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>10</v>
@@ -2110,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -2119,7 +2119,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>10</v>
@@ -2128,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -2137,16 +2137,16 @@
         <v>22</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F30" s="8"/>
     </row>
@@ -2155,16 +2155,16 @@
         <v>23</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F31" s="8"/>
     </row>
@@ -2173,7 +2173,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>19</v>
@@ -2182,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F32" s="8"/>
     </row>
@@ -2191,7 +2191,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>19</v>
@@ -2200,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F33" s="8"/>
     </row>
@@ -2209,7 +2209,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>19</v>
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F34" s="8"/>
     </row>
@@ -2227,7 +2227,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>19</v>
@@ -2236,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F35" s="8"/>
     </row>
@@ -2245,7 +2245,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>19</v>
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F36" s="8"/>
     </row>
@@ -2263,7 +2263,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>19</v>
@@ -2272,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F37" s="8"/>
     </row>
@@ -2281,7 +2281,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>19</v>
@@ -2290,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F38" s="8"/>
     </row>
@@ -2299,7 +2299,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>19</v>
@@ -2308,7 +2308,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F39" s="8"/>
     </row>
@@ -2317,7 +2317,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>19</v>
@@ -2326,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F40" s="8"/>
     </row>
@@ -2335,7 +2335,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>19</v>
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F41" s="8"/>
     </row>
@@ -2353,7 +2353,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>19</v>
@@ -2362,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F42" s="8"/>
     </row>
@@ -2402,48 +2402,48 @@
       </c>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <v>37</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <v>38</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>39</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>19</v>
@@ -2452,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F47" s="8"/>
     </row>
@@ -2461,7 +2461,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>19</v>
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F48" s="8"/>
     </row>
@@ -2479,7 +2479,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>19</v>
@@ -2495,7 +2495,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>19</v>
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F50" s="8"/>
     </row>
@@ -2513,7 +2513,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>19</v>
@@ -2522,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F51" s="8"/>
     </row>
@@ -2531,7 +2531,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>19</v>
@@ -2540,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F52" s="8"/>
     </row>
@@ -2549,7 +2549,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>19</v>
@@ -2558,67 +2558,67 @@
         <v>2</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F53" s="8"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B55" s="20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B56" s="20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B57" s="20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B58" s="23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" s="24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B60" s="24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -2704,13 +2704,13 @@
         <v>23</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -2718,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>19</v>
@@ -2730,10 +2730,10 @@
         <v>120</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2742,7 +2742,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>10</v>
@@ -2754,10 +2754,10 @@
         <v>60</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H10" s="30"/>
     </row>
@@ -2767,7 +2767,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C11" s="39" t="s">
         <v>10</v>
@@ -2779,10 +2779,10 @@
         <v>60</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H11" s="15"/>
     </row>
@@ -2792,7 +2792,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>10</v>
@@ -2804,10 +2804,10 @@
         <v>60</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H12" s="15"/>
     </row>
@@ -2816,7 +2816,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13" s="38" t="s">
         <v>10</v>
@@ -2829,10 +2829,10 @@
         <v>120</v>
       </c>
       <c r="F13" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="38" t="s">
         <v>131</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>136</v>
       </c>
       <c r="H13" s="15"/>
     </row>
@@ -2841,7 +2841,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C14" s="46" t="s">
         <v>10</v>
@@ -2853,10 +2853,10 @@
         <v>240</v>
       </c>
       <c r="F14" s="48" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H14" s="45"/>
     </row>
@@ -2865,7 +2865,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C15" s="38" t="s">
         <v>10</v>
@@ -2877,10 +2877,10 @@
         <v>60</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H15" s="15"/>
     </row>
@@ -2889,7 +2889,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C16" s="38" t="s">
         <v>10</v>
@@ -2901,10 +2901,10 @@
         <v>60</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H16" s="15"/>
     </row>
@@ -2913,7 +2913,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C17" s="38" t="s">
         <v>10</v>
@@ -2925,10 +2925,10 @@
         <v>120</v>
       </c>
       <c r="F17" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="38" t="s">
         <v>131</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>136</v>
       </c>
       <c r="H17" s="15"/>
     </row>
@@ -2949,10 +2949,10 @@
         <v>240</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H18" s="15"/>
     </row>
@@ -2979,7 +2979,7 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
@@ -3016,7 +3016,7 @@
     </row>
     <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -3040,13 +3040,13 @@
         <v>23</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3055,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>19</v>
@@ -3068,10 +3068,10 @@
         <v>60</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H9" s="15"/>
     </row>
@@ -3081,10 +3081,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>1</v>
@@ -3094,10 +3094,10 @@
         <v>60</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H10" s="15"/>
     </row>
@@ -3120,10 +3120,10 @@
         <v>60</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H11" s="15"/>
     </row>
@@ -3133,7 +3133,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>19</v>
@@ -3146,10 +3146,10 @@
         <v>60</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H12" s="15"/>
     </row>
@@ -3158,8 +3158,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>141</v>
+      <c r="B13" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>19</v>
@@ -3172,10 +3172,10 @@
         <v>60</v>
       </c>
       <c r="F13" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="H13" s="15"/>
     </row>
@@ -3185,7 +3185,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>19</v>
@@ -3198,10 +3198,10 @@
         <v>60</v>
       </c>
       <c r="F14" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -3210,7 +3210,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>19</v>
@@ -3223,10 +3223,10 @@
         <v>60</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H15" s="15"/>
     </row>
@@ -3235,10 +3235,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>1</v>
@@ -3248,10 +3248,10 @@
         <v>60</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H16" s="15"/>
     </row>
@@ -3260,7 +3260,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>19</v>
@@ -3273,10 +3273,10 @@
         <v>60</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H17" s="15"/>
     </row>
@@ -3286,7 +3286,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>19</v>
@@ -3299,10 +3299,10 @@
         <v>60</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H18" s="15"/>
     </row>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -3390,13 +3390,13 @@
         <v>23</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3405,10 +3405,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>1</v>
@@ -3418,10 +3418,10 @@
         <v>60</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H9" s="9"/>
     </row>
@@ -3431,10 +3431,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>1</v>
@@ -3444,10 +3444,10 @@
         <v>60</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H10" s="9"/>
     </row>
@@ -3457,10 +3457,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>1</v>
@@ -3470,10 +3470,10 @@
         <v>60</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H11" s="9"/>
     </row>
@@ -3483,10 +3483,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>1</v>
@@ -3496,10 +3496,10 @@
         <v>60</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H12" s="9"/>
     </row>
@@ -3509,10 +3509,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>2</v>
@@ -3522,10 +3522,10 @@
         <v>120</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -3535,10 +3535,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>1</v>
@@ -3548,10 +3548,10 @@
         <v>60</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H14" s="6"/>
     </row>
@@ -3560,10 +3560,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>1</v>
@@ -3573,10 +3573,10 @@
         <v>60</v>
       </c>
       <c r="F15" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="H15" s="9"/>
     </row>
@@ -3585,10 +3585,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>2</v>
@@ -3598,10 +3598,10 @@
         <v>120</v>
       </c>
       <c r="F16" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="H16" s="9"/>
     </row>
@@ -3610,10 +3610,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>2</v>
@@ -3623,10 +3623,10 @@
         <v>120</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H17" s="9"/>
     </row>
@@ -3636,10 +3636,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>1</v>
@@ -3649,10 +3649,10 @@
         <v>60</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H18" s="9"/>
     </row>
@@ -3681,7 +3681,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3716,7 +3716,7 @@
     </row>
     <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -3740,13 +3740,13 @@
         <v>23</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>10</v>
@@ -3768,10 +3768,10 @@
         <v>120</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H9" s="9"/>
     </row>
@@ -3781,7 +3781,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>10</v>
@@ -3794,10 +3794,10 @@
         <v>60</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H10" s="9"/>
     </row>
@@ -3807,10 +3807,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>3</v>
@@ -3820,10 +3820,10 @@
         <v>240</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H11" s="9"/>
     </row>
@@ -3833,10 +3833,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>1</v>
@@ -3846,10 +3846,10 @@
         <v>60</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -3859,10 +3859,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>1</v>
@@ -3872,10 +3872,10 @@
         <v>60</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -3885,10 +3885,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>2</v>
@@ -3898,10 +3898,10 @@
         <v>120</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H14" s="9"/>
     </row>
@@ -3910,10 +3910,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>1</v>
@@ -3923,10 +3923,10 @@
         <v>60</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H15" s="9"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>2</v>
@@ -3947,10 +3947,10 @@
         <v>120</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H16" s="9"/>
     </row>
@@ -3959,10 +3959,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>2</v>
@@ -3971,10 +3971,10 @@
         <v>120</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H17" s="9"/>
     </row>
@@ -3983,10 +3983,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>1</v>
@@ -3996,10 +3996,10 @@
         <v>60</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H18" s="9"/>
     </row>
@@ -4008,10 +4008,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>1</v>
@@ -4021,10 +4021,10 @@
         <v>60</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H19" s="9"/>
     </row>
@@ -4033,10 +4033,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>1</v>
@@ -4046,10 +4046,10 @@
         <v>60</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H20" s="9"/>
     </row>
@@ -4058,10 +4058,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>1</v>
@@ -4071,10 +4071,10 @@
         <v>60</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H21" s="9"/>
     </row>
@@ -4083,10 +4083,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>1</v>
@@ -4096,10 +4096,10 @@
         <v>60</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H22" s="9"/>
     </row>
@@ -4108,7 +4108,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>19</v>
@@ -4121,10 +4121,10 @@
         <v>120</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H23" s="9"/>
     </row>

--- a/W6/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
+++ b/W6/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -1684,7 +1684,7 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
     </sheetView>
@@ -3329,9 +3329,9 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/W6/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
+++ b/W6/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
@@ -509,18 +509,12 @@
     <t>Add edit delete blog</t>
   </si>
   <si>
-    <t>Add edit delete post</t>
-  </si>
-  <si>
     <t>Contact us</t>
   </si>
   <si>
     <t>Seller</t>
   </si>
   <si>
-    <t>Add edit delete voucher</t>
-  </si>
-  <si>
     <t>Cancel Order</t>
   </si>
   <si>
@@ -549,6 +543,12 @@
   </si>
   <si>
     <t>Display all content, instructions of Admin to support users</t>
+  </si>
+  <si>
+    <t>Search Service</t>
+  </si>
+  <si>
+    <t>Add edit delete Service</t>
   </si>
 </sst>
 </file>
@@ -2407,7 +2407,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>19</v>
@@ -2416,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F45" s="8"/>
     </row>
@@ -2425,7 +2425,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>19</v>
@@ -2434,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F46" s="8"/>
     </row>
@@ -2479,7 +2479,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>19</v>
@@ -2841,7 +2841,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C14" s="46" t="s">
         <v>10</v>
@@ -2981,7 +2981,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3133,7 +3133,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>19</v>
@@ -3159,7 +3159,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>19</v>
@@ -3185,7 +3185,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>19</v>
@@ -3330,8 +3330,8 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3460,7 +3460,7 @@
         <v>150</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>1</v>
@@ -3483,10 +3483,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>1</v>
@@ -3636,7 +3636,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>25</v>
@@ -3681,7 +3681,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3773,7 +3773,7 @@
       <c r="G9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
@@ -3806,18 +3806,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>117</v>
+      <c r="B11" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="F11" s="40" t="s">
         <v>122</v>
@@ -3832,18 +3832,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>144</v>
+      <c r="B12" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="F12" s="40" t="s">
         <v>122</v>
@@ -3862,7 +3862,7 @@
         <v>61</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>1</v>
@@ -3888,7 +3888,7 @@
         <v>145</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>2</v>
@@ -3913,7 +3913,7 @@
         <v>62</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>1</v>
@@ -3938,7 +3938,7 @@
         <v>128</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>2</v>
@@ -3962,7 +3962,7 @@
         <v>146</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>2</v>
@@ -3986,7 +3986,7 @@
         <v>152</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>1</v>
@@ -4032,11 +4032,11 @@
       <c r="A20" s="12">
         <v>12</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>158</v>
+      <c r="B20" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>1</v>
@@ -4058,10 +4058,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>1</v>
@@ -4086,7 +4086,7 @@
         <v>153</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>1</v>
@@ -4108,7 +4108,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>19</v>

--- a/W6/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
+++ b/W6/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -2979,7 +2979,7 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
@@ -3329,7 +3329,7 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
